--- a/biology/Zoologie/Capra_caucasica/Capra_caucasica.xlsx
+++ b/biology/Zoologie/Capra_caucasica/Capra_caucasica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chèvre du Caucase occidental
 Le Tur du Caucase occidental ou chèvre du Caucase occidental (Capra caucasica), ou simplement chèvre du Caucase est une espèce de mammifère herbivore de la famille des bovidés que l'on rencontre dans le Caucase de l'Ouest à une altitude de 800 à 4 000 m. Elle vit notamment dans la réserve naturelle du Caucase.
@@ -512,7 +524,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De tous les caprins c'est le Tur qui a la plus petite aire de répartition : du Caucase occidental à la mer Noire.
 </t>
@@ -543,11 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une hauteur d'un mètre au garrot et pesant jusqu'à 65 kg, la chèvre du Caucase occidental présente un corps haut et étroit sur des jambes relativement courtes. Sa couleur est rousse avec le ventre jaune.
-Cornage
-En comparaison avec d'autres bouquetins, les cornes du Tur sont plus courtes mais plus épaisses. Chez les mâles, elles peuvent atteindre 75 cm pour un poids de 1,8 kg chacune. Tandis que celles des femelles ne dépassent pas les 30 centimètres.
 </t>
         </is>
       </c>
@@ -573,49 +587,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cornage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En comparaison avec d'autres bouquetins, les cornes du Tur sont plus courtes mais plus épaisses. Chez les mâles, elles peuvent atteindre 75 cm pour un poids de 1,8 kg chacune. Tandis que celles des femelles ne dépassent pas les 30 centimètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Capra_caucasica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capra_caucasica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces actuelles selon ITIS      (4 juillet 2015)[1] et Mammal Species of the World (version 3, 2005)  (4 juillet 2015)[2]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces actuelles selon ITIS      (4 juillet 2015) et Mammal Species of the World (version 3, 2005)  (4 juillet 2015):
 Capra caucasica caucasica Güldenstaedt and Pallas, 1779 - Chèvre du Caucase occidental
 Capra caucasica cylindricornis Blyth, 1841 - Chèvre du Caucase oriental
 Capra caucasica severtzovi Menzbier, 1888</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Capra_caucasica</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Capra_caucasica</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chèvre du Caucase mange principalement de l'herbe et des feuilles. C'est un animal nocturne qui ne mange à découvert que la nuit et qui reste à l'abri en journée. Les femelles vivent en troupeaux d'une dizaine d'individus tandis que les mâles sont solitaires.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -637,12 +659,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prédateurs</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est parfois la proie des loups ou des lynx, également des braconniers.
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chèvre du Caucase mange principalement de l'herbe et des feuilles. C'est un animal nocturne qui ne mange à découvert que la nuit et qui reste à l'abri en journée. Les femelles vivent en troupeaux d'une dizaine d'individus tandis que les mâles sont solitaires.
 </t>
         </is>
       </c>
@@ -668,12 +692,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alimentation</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tur du Caucase occidental se nourrit de feuilles, herbes, écorces et lichens.
+          <t>Prédateurs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est parfois la proie des loups ou des lynx, également des braconniers.
 </t>
         </is>
       </c>
@@ -699,12 +725,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Reproduction</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle Tur du Caucase occidentale donne naissance à un seul petit, après une gestation d'environ cinq mois[3].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tur du Caucase occidental se nourrit de feuilles, herbes, écorces et lichens.
 </t>
         </is>
       </c>
@@ -730,15 +758,88 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle Tur du Caucase occidentale donne naissance à un seul petit, après une gestation d'environ cinq mois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Capra_caucasica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capra_caucasica</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Espèce en Danger IUCN</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Déclin
-Le braconnage est la principale raison du déclin de l'espèce, en cause la concurrence avec les chèvres et moutons domestiques, mais aussi la dégradation de son milieu naturel. Les loups et les lynx ou encore les avalanches se rajoutent parfois aux causes premières du déclin. En 25 ans les effectifs sont passés de 12 000 à 5 000 têtes.
-Plan de conservation
-Capra caucasica fait partie du Programme européen pour les espèces menacées ESB. La Ménagerie du jardin des plantes de Paris en fait notamment partie et héberge un petit groupe de spécimens où des jeunes sont observables.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Déclin</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le braconnage est la principale raison du déclin de l'espèce, en cause la concurrence avec les chèvres et moutons domestiques, mais aussi la dégradation de son milieu naturel. Les loups et les lynx ou encore les avalanches se rajoutent parfois aux causes premières du déclin. En 25 ans les effectifs sont passés de 12 000 à 5 000 têtes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Capra_caucasica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capra_caucasica</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèce en Danger IUCN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Plan de conservation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capra caucasica fait partie du Programme européen pour les espèces menacées ESB. La Ménagerie du jardin des plantes de Paris en fait notamment partie et héberge un petit groupe de spécimens où des jeunes sont observables.
 </t>
         </is>
       </c>
